--- a/english.xlsx
+++ b/english.xlsx
@@ -11,18 +11,414 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>I like you</t>
-  </si>
-  <si>
-    <t>나는 너를 좋아한다.</t>
-  </si>
-  <si>
-    <t>There is a car.</t>
-  </si>
-  <si>
-    <t>차가 1대 있다.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+  <si>
+    <t>I'm kind of nervous.</t>
+  </si>
+  <si>
+    <t>좀 긴장돼요.</t>
+  </si>
+  <si>
+    <t>I'm here to talk to you.</t>
+  </si>
+  <si>
+    <t>당신과 얘기하러 왔어요.</t>
+  </si>
+  <si>
+    <t>I'm about to get going.</t>
+  </si>
+  <si>
+    <t>가려던 참이에요.</t>
+  </si>
+  <si>
+    <t>I'm about to head out.</t>
+  </si>
+  <si>
+    <t>나가려던 참이에요.</t>
+  </si>
+  <si>
+    <t>I'm about to finish up.</t>
+  </si>
+  <si>
+    <t>끝내려던 참이에요.</t>
+  </si>
+  <si>
+    <t>I'm dying to see you.</t>
+  </si>
+  <si>
+    <t>정말 당신이 보고 섶어요.</t>
+  </si>
+  <si>
+    <t>I'm dying to give it a shot.</t>
+  </si>
+  <si>
+    <t>정말 한번 시도해 보고 싶어요.</t>
+  </si>
+  <si>
+    <t>I'm okay with anything.</t>
+  </si>
+  <si>
+    <t>아무거나 괜찮아요.</t>
+  </si>
+  <si>
+    <t>I'm okay with whatever you choose.</t>
+  </si>
+  <si>
+    <t>당신이 뭘 선택하든 괜찮아요.</t>
+  </si>
+  <si>
+    <t>I'm okay with how it turned out.</t>
+  </si>
+  <si>
+    <t>결과가 어떻게 됐든 괜찮아요.</t>
+  </si>
+  <si>
+    <t>I'm ready to order.</t>
+  </si>
+  <si>
+    <t>주문할 준비 됐어요.</t>
+  </si>
+  <si>
+    <t>I'm ready to make a choice.</t>
+  </si>
+  <si>
+    <t>선택할 준비 됐어요.</t>
+  </si>
+  <si>
+    <t>I'm good at directions.</t>
+  </si>
+  <si>
+    <t>전 방향을 잘 알아요.</t>
+  </si>
+  <si>
+    <t>I'm good at figuring things out.</t>
+  </si>
+  <si>
+    <t>전 잘 파악해요.</t>
+  </si>
+  <si>
+    <t>I'm on vacation.</t>
+  </si>
+  <si>
+    <t>휴가중이에요.</t>
+  </si>
+  <si>
+    <t>I'm on it.</t>
+  </si>
+  <si>
+    <t>지금 하고 있는 중이에요.</t>
+  </si>
+  <si>
+    <t>I'm on medicine.</t>
+  </si>
+  <si>
+    <t>약을 먹고 있는 중이에요.</t>
+  </si>
+  <si>
+    <t>I'm happy with my new job.</t>
+  </si>
+  <si>
+    <t>새 직장에 만족해요.</t>
+  </si>
+  <si>
+    <t>I'm happy with my choice.</t>
+  </si>
+  <si>
+    <t>제 선택에 만족해요.</t>
+  </si>
+  <si>
+    <t>I'm happy with my life.</t>
+  </si>
+  <si>
+    <t>제 생활에 만족해요.</t>
+  </si>
+  <si>
+    <t>I'm happy with where I live.</t>
+  </si>
+  <si>
+    <t>지금 살고 있는 곳에 만족해요.</t>
+  </si>
+  <si>
+    <t>I'm not leaving.</t>
+  </si>
+  <si>
+    <t>나 안 간다.</t>
+  </si>
+  <si>
+    <t>Have a bite!</t>
+  </si>
+  <si>
+    <t>한입 먹어봐!</t>
+  </si>
+  <si>
+    <t>Where should we go for dinner?</t>
+  </si>
+  <si>
+    <t>우리 저녁 어디서 먹을까?</t>
+  </si>
+  <si>
+    <t>I need you to get this done.</t>
+  </si>
+  <si>
+    <t>너가 이걸 끝내야 해.</t>
+  </si>
+  <si>
+    <t>Do you like going to the movies?</t>
+  </si>
+  <si>
+    <t>영화 보러 가는 거 좋아하세요?</t>
+  </si>
+  <si>
+    <t>Do you know anything about him?</t>
+  </si>
+  <si>
+    <t>그 사람에 대해서 뭐 아세요?</t>
+  </si>
+  <si>
+    <t>Do you know what time it is?</t>
+  </si>
+  <si>
+    <t>몇 시인지 아세요?</t>
+  </si>
+  <si>
+    <t>Do you want to grab a bite to eat?</t>
+  </si>
+  <si>
+    <t>뭐 좀 드시겠어요?</t>
+  </si>
+  <si>
+    <t>Do you want to get a drink?</t>
+  </si>
+  <si>
+    <t>한잔 할래요?</t>
+  </si>
+  <si>
+    <t>Do you feel like a drink?</t>
+  </si>
+  <si>
+    <t>한잔 하고 싶어요?</t>
+  </si>
+  <si>
+    <t>Do you feel like staying home?</t>
+  </si>
+  <si>
+    <t>집에 있고 싶어요?</t>
+  </si>
+  <si>
+    <t>Do you feel like getting lunch?</t>
+  </si>
+  <si>
+    <t>점심 먹을래요?</t>
+  </si>
+  <si>
+    <t>Do you think this looks okay?</t>
+  </si>
+  <si>
+    <t>이게 괜찮아 보인다고 생각해요?</t>
+  </si>
+  <si>
+    <t>Do you think I should buy it?</t>
+  </si>
+  <si>
+    <t>제가 그걸 사야 할까요?</t>
+  </si>
+  <si>
+    <t>Do you think he'll call me?</t>
+  </si>
+  <si>
+    <t>그가 저한테 전화를 할까요?</t>
+  </si>
+  <si>
+    <t>Do you need a ride?</t>
+  </si>
+  <si>
+    <t>제가 태워드릴까요?</t>
+  </si>
+  <si>
+    <t>Do you need a date for the party?</t>
+  </si>
+  <si>
+    <t>파티에 같이 갈 데이트 상대가 필요해요?</t>
+  </si>
+  <si>
+    <t>Do you remember the name of the restaurant?</t>
+  </si>
+  <si>
+    <t>그 식당 이름 기억나요?</t>
+  </si>
+  <si>
+    <t>Do you remember what time it starts?</t>
+  </si>
+  <si>
+    <t>언제 시작하는지 기억나요?</t>
+  </si>
+  <si>
+    <t>You should ask her out.</t>
+  </si>
+  <si>
+    <t>그녀에게 데이트 신청해.</t>
+  </si>
+  <si>
+    <t>I'm getting hungry.</t>
+  </si>
+  <si>
+    <t>나 배가 고파지네.</t>
+  </si>
+  <si>
+    <t>I'm starving!</t>
+  </si>
+  <si>
+    <t>배고파 죽겠어!</t>
+  </si>
+  <si>
+    <t>It costs a lot of money.</t>
+  </si>
+  <si>
+    <t>그건 돈이 많이 든다.</t>
+  </si>
+  <si>
+    <t>I'll be there.</t>
+  </si>
+  <si>
+    <t>거기 있을게.</t>
+  </si>
+  <si>
+    <t>I think we should get going.</t>
+  </si>
+  <si>
+    <t>우리 가봐야 할 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think I saw him before.</t>
+  </si>
+  <si>
+    <t>전에 저 사람 본 것 같아요.</t>
+  </si>
+  <si>
+    <t>I don't think it's the right choice.</t>
+  </si>
+  <si>
+    <t>올바른 선택이 아닌 것 같아요.</t>
+  </si>
+  <si>
+    <t>I don't think it makes sense.</t>
+  </si>
+  <si>
+    <t>말이 안 되는 것 같아요.</t>
+  </si>
+  <si>
+    <t>I don't think that looks good on you.</t>
+  </si>
+  <si>
+    <t>그거 당신한테 안 어울리는 것 같아요.</t>
+  </si>
+  <si>
+    <t>I don't think that is necessary.</t>
+  </si>
+  <si>
+    <t>그건 필요 없을 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think I'm going to give up.</t>
+  </si>
+  <si>
+    <t>포기할 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think I'm going to decide soon.</t>
+  </si>
+  <si>
+    <t>곧 결정할 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think I'm going to quit my job.</t>
+  </si>
+  <si>
+    <t>일을 그만둘 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think we should talk about it.</t>
+  </si>
+  <si>
+    <t>우리 그것에 대해 얘기해봐야 할 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think we should wait and see.</t>
+  </si>
+  <si>
+    <t>기다리면서 상황을 좀 봐야 할 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think we should ask for directions.</t>
+  </si>
+  <si>
+    <t>우리 방향을 물어봐야할 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think we should make sure.</t>
+  </si>
+  <si>
+    <t>우리 확인해봐야 할 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think I've got the wrong idea.</t>
+  </si>
+  <si>
+    <t>제가 잘못 생각했던 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think I've got a minute.</t>
+  </si>
+  <si>
+    <t>잠깐 시간이 될 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think I've got a cold..</t>
+  </si>
+  <si>
+    <t>감기에 걸린 것 같아요.</t>
+  </si>
+  <si>
+    <t>I think I've got a bad impression.</t>
+  </si>
+  <si>
+    <t>제가 나쁜 인상을 받은 것 같아요.</t>
+  </si>
+  <si>
+    <t>I'm thinking about moving.</t>
+  </si>
+  <si>
+    <t>이사할까 생각 중이에요.</t>
+  </si>
+  <si>
+    <t>I'm thinking about leaving my husband.</t>
+  </si>
+  <si>
+    <t>남편과 헤어질까 생각 중이에요.</t>
+  </si>
+  <si>
+    <t>I thought you left already.</t>
+  </si>
+  <si>
+    <t>당신이 이미 떠난 줄 알았어요.</t>
+  </si>
+  <si>
+    <t>I thought you would need this.</t>
+  </si>
+  <si>
+    <t>당신이 이게 필요할 줄 알았어요.</t>
+  </si>
+  <si>
+    <t>Why would you do that?</t>
+  </si>
+  <si>
+    <t>왜 그렇게 하려고 하는데?</t>
+  </si>
+  <si>
+    <t>What's for dinner?</t>
+  </si>
+  <si>
+    <t>저녁 메뉴 뭐야?</t>
   </si>
 </sst>
 </file>
@@ -279,7 +675,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.13"/>
+    <col customWidth="1" min="1" max="1" width="38.5"/>
     <col customWidth="1" min="2" max="2" width="28.25"/>
   </cols>
   <sheetData>
@@ -299,6 +695,534 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/english.xlsx
+++ b/english.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>I'm kind of nervous.</t>
   </si>
@@ -419,6 +419,558 @@
   </si>
   <si>
     <t>저녁 메뉴 뭐야?</t>
+  </si>
+  <si>
+    <t>I like this place a lot.</t>
+  </si>
+  <si>
+    <t>이곳이 너무 좋아요.</t>
+  </si>
+  <si>
+    <t>I like to try new foods.</t>
+  </si>
+  <si>
+    <t>새로운 음식에 도전하는 것을 좋아해요.</t>
+  </si>
+  <si>
+    <t>I like going to the movies.</t>
+  </si>
+  <si>
+    <t>영화보러 가는 것을 좋아해요.</t>
+  </si>
+  <si>
+    <t>I like visiting new places.</t>
+  </si>
+  <si>
+    <t>새로운 곳 방문하는 것을 좋아해요.</t>
+  </si>
+  <si>
+    <t>I really like taking a bath.</t>
+  </si>
+  <si>
+    <t>목욕을 정말 좋아해요.</t>
+  </si>
+  <si>
+    <t>I really like learning new things.</t>
+  </si>
+  <si>
+    <t>새로운 거 배우는 것을 정말 좋아해요.</t>
+  </si>
+  <si>
+    <t>I really like going for bike rides.</t>
+  </si>
+  <si>
+    <t>자전거 타러 가는 걸 정말 좋아해요.</t>
+  </si>
+  <si>
+    <t>I don'n like the way you talk to me.</t>
+  </si>
+  <si>
+    <t>당신이 나한테 말하는 방식이 마음에 안 들어요.</t>
+  </si>
+  <si>
+    <t>I don't really like eating out.</t>
+  </si>
+  <si>
+    <t>외식을 별로 안 좋아해요.</t>
+  </si>
+  <si>
+    <t>I like the way you think.</t>
+  </si>
+  <si>
+    <t>당신의 사고방식이 좋아요.</t>
+  </si>
+  <si>
+    <t>I like the way you look today.</t>
+  </si>
+  <si>
+    <t>오늘 당신 스타일이 맘에 들어요.</t>
+  </si>
+  <si>
+    <t>I like the way he treats me.</t>
+  </si>
+  <si>
+    <t>그 사람이 나를 대하는 방식이 좋아요.</t>
+  </si>
+  <si>
+    <t>I like the way I fell after exercising.</t>
+  </si>
+  <si>
+    <t>운동 후의 느낌이 좋아요.</t>
+  </si>
+  <si>
+    <t>I'd like to meet someone new.</t>
+  </si>
+  <si>
+    <t>새로운 사람을 만나고 싶어요.</t>
+  </si>
+  <si>
+    <t>I'd like an ocean-view suite.</t>
+  </si>
+  <si>
+    <t>바다가 보이는 특실로 하고 싶어요.</t>
+  </si>
+  <si>
+    <t>Do you grow vegetables?</t>
+  </si>
+  <si>
+    <t>너 채소를 길러?</t>
+  </si>
+  <si>
+    <t>How do you relax?</t>
+  </si>
+  <si>
+    <t>넌 어떻게 휴식을 취해?</t>
+  </si>
+  <si>
+    <t>Where did you get them?</t>
+  </si>
+  <si>
+    <t>그거 어디서 났어?</t>
+  </si>
+  <si>
+    <t>Why do you work out so much?</t>
+  </si>
+  <si>
+    <t>무슨 운동을 그리 열심히 하니?</t>
+  </si>
+  <si>
+    <t>What is your dream vacation?</t>
+  </si>
+  <si>
+    <t>당신의 꿈의 여행지는 어디에요?</t>
+  </si>
+  <si>
+    <t>Would you like another glass of wine?</t>
+  </si>
+  <si>
+    <t>와인 한 잔 더 드릴까요?</t>
+  </si>
+  <si>
+    <t>Would you like some dinenr?</t>
+  </si>
+  <si>
+    <t>저녁 드실래요?</t>
+  </si>
+  <si>
+    <t>Would you like the receipt?</t>
+  </si>
+  <si>
+    <t>영수증 드릴까요?</t>
+  </si>
+  <si>
+    <t>Would you like my phone number?</t>
+  </si>
+  <si>
+    <t>제 전화번호 드릴까요?</t>
+  </si>
+  <si>
+    <t>Would you like to stay for dinner?</t>
+  </si>
+  <si>
+    <t>저녁 드시고 가시겠어요?</t>
+  </si>
+  <si>
+    <t>Would you like go out sometime?</t>
+  </si>
+  <si>
+    <t>시간될 때 놀러가시겠어요?</t>
+  </si>
+  <si>
+    <t>Would you like to go on a trip?</t>
+  </si>
+  <si>
+    <t>여행을 가시겠어요?</t>
+  </si>
+  <si>
+    <t>Would you like some coffee?</t>
+  </si>
+  <si>
+    <t>커피 좀 드실래요?</t>
+  </si>
+  <si>
+    <t>Would you like some help?</t>
+  </si>
+  <si>
+    <t>좀 도와드릴까요?</t>
+  </si>
+  <si>
+    <t>Would you like me to call you?</t>
+  </si>
+  <si>
+    <t>제가 전화드릴까요?</t>
+  </si>
+  <si>
+    <t>Would you like me to pick you up?</t>
+  </si>
+  <si>
+    <t>제가 데리러 갈까요?</t>
+  </si>
+  <si>
+    <t>What would you like to talk about?</t>
+  </si>
+  <si>
+    <t>어떤 얘기를 하고 싶으세요?</t>
+  </si>
+  <si>
+    <t>What would you like to do this weekend?</t>
+  </si>
+  <si>
+    <t>이번 주말에 뭘 하고 싶으세요?</t>
+  </si>
+  <si>
+    <t>What would you like to make for dinner?</t>
+  </si>
+  <si>
+    <t>저녁으로 어떤 음식을 만들고 싶으세요?</t>
+  </si>
+  <si>
+    <t>Where would you like to meet me?</t>
+  </si>
+  <si>
+    <t>어디서 만나고 싶어요?</t>
+  </si>
+  <si>
+    <t>Where would you like to sit?</t>
+  </si>
+  <si>
+    <t>어디에 앉고 싶으세요?</t>
+  </si>
+  <si>
+    <t>Would you like to think about getting married?</t>
+  </si>
+  <si>
+    <t>결혼하는 것에 대해 생각해 보시겠어요?</t>
+  </si>
+  <si>
+    <t>Would you like to think about having a baby?</t>
+  </si>
+  <si>
+    <t>아이를 가지는 것에 대해 생각해 보시겠어요?</t>
+  </si>
+  <si>
+    <t>Would you mind waiting outside?</t>
+  </si>
+  <si>
+    <t>밖에서 기다려 주시겠어요?</t>
+  </si>
+  <si>
+    <t>Would you mind walking the dog?</t>
+  </si>
+  <si>
+    <t>개 좀 산책시켜 주시겠어요?</t>
+  </si>
+  <si>
+    <t>Let's sit by the windows.</t>
+  </si>
+  <si>
+    <t>우리 창가에 앉자.</t>
+  </si>
+  <si>
+    <t>I'll grab us a seat.</t>
+  </si>
+  <si>
+    <t>내가 자리를 잡을게.</t>
+  </si>
+  <si>
+    <t>I'll give it some thought.</t>
+  </si>
+  <si>
+    <t>그것에 대해 생각 좀 해볼게요.</t>
+  </si>
+  <si>
+    <t>I'll be out of town next week.</t>
+  </si>
+  <si>
+    <t>다음 주에 출장이라서요.</t>
+  </si>
+  <si>
+    <t>Don't be late.</t>
+  </si>
+  <si>
+    <t>늦지 마.</t>
+  </si>
+  <si>
+    <t>Don't be mean to me.</t>
+  </si>
+  <si>
+    <t>나한테 못되게 굴지 마.</t>
+  </si>
+  <si>
+    <t>Don't be sure.</t>
+  </si>
+  <si>
+    <t>너무 확신하지 마.</t>
+  </si>
+  <si>
+    <t>Don't be so sarcastic.</t>
+  </si>
+  <si>
+    <t>너무 비꼬지마.</t>
+  </si>
+  <si>
+    <t>Don't be messy.</t>
+  </si>
+  <si>
+    <t>너무 지저분하게 하지 마.</t>
+  </si>
+  <si>
+    <t>Don't be so quick to judge.</t>
+  </si>
+  <si>
+    <t>너무 속단하지 마.</t>
+  </si>
+  <si>
+    <t>Don't be so short with me.</t>
+  </si>
+  <si>
+    <t>나한테 너무 퉁명스럽게 굴지 마.</t>
+  </si>
+  <si>
+    <t>Don't forget to pick up some milk.</t>
+  </si>
+  <si>
+    <t>우유 사는 거 잊지 마.</t>
+  </si>
+  <si>
+    <t>Don't forget to feed the dog.</t>
+  </si>
+  <si>
+    <t>개 밥 주는 거 잊지 마.</t>
+  </si>
+  <si>
+    <t>Don't try to quit.</t>
+  </si>
+  <si>
+    <t>그만두려고 하지 마.</t>
+  </si>
+  <si>
+    <t>Don't try to wear that.</t>
+  </si>
+  <si>
+    <t>그거 입으려고 하지 마.</t>
+  </si>
+  <si>
+    <t>Don't even try it.</t>
+  </si>
+  <si>
+    <t>그거 시도도 하지 마.</t>
+  </si>
+  <si>
+    <t>Don't even say another word.</t>
+  </si>
+  <si>
+    <t>한마디도 더 하지 마.</t>
+  </si>
+  <si>
+    <t>Don't even think about it.</t>
+  </si>
+  <si>
+    <t>그건 생각도 하지 마.</t>
+  </si>
+  <si>
+    <t>Don't even think about dating my daughter.</t>
+  </si>
+  <si>
+    <t>내 딸이랑 데이트할 생각도 하지 마.</t>
+  </si>
+  <si>
+    <t>Don't hesitate to call.</t>
+  </si>
+  <si>
+    <t>주저하지 말고 전화하세요.</t>
+  </si>
+  <si>
+    <t>Don't hesitate to ask questions.</t>
+  </si>
+  <si>
+    <t>주저하지 말고 질문하세요.</t>
+  </si>
+  <si>
+    <t>Don't hesitate to ask for help.</t>
+  </si>
+  <si>
+    <t>주저하지 말고 도움을 요청하세요.</t>
+  </si>
+  <si>
+    <t>Don't you ever say that again.</t>
+  </si>
+  <si>
+    <t>어떠한 경우에도 다시는 그런 말 하지마.</t>
+  </si>
+  <si>
+    <t>Don't you ever think about quitting.</t>
+  </si>
+  <si>
+    <t>어떠한 경우에도 그만둔다는 생각은 하지 마.</t>
+  </si>
+  <si>
+    <t>Don't you ever leave me.</t>
+  </si>
+  <si>
+    <t>어떠한 경우에도 날 떠나지 마.</t>
+  </si>
+  <si>
+    <t>She spends so much money on clothes.</t>
+  </si>
+  <si>
+    <t>그녀는 옷에 돈을 너무 많이 써.</t>
+  </si>
+  <si>
+    <t>I did a bad job on my test.</t>
+  </si>
+  <si>
+    <t>나 시험 망쳤어.</t>
+  </si>
+  <si>
+    <t>I'm sorry to call you late at night.</t>
+  </si>
+  <si>
+    <t>밤 늦게 전화해서 죄송해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry to tell you this.</t>
+  </si>
+  <si>
+    <t>이런 말씀을 드려 죄송해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry about the decision I made.</t>
+  </si>
+  <si>
+    <t>제가 한 결정에 대해서 죄송해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry about wrecking your car.</t>
+  </si>
+  <si>
+    <t>당신 차를 고장내서 죄송해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry for inerrupting your meeting.</t>
+  </si>
+  <si>
+    <t>회의를 방해해서 죄송해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry I can't figure this out.</t>
+  </si>
+  <si>
+    <t>제가 이것을 해결할 수 없어 미안해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry I can't get this done in time.</t>
+  </si>
+  <si>
+    <t>이것을 제때에 못 끝내서 미안해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry I can't cover for you.</t>
+  </si>
+  <si>
+    <t>당신 일을 대신 봐 주지 못해 미안해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I can't recognize you.</t>
+  </si>
+  <si>
+    <t>죄송하지만 당신을 못 알아보겠어요.</t>
+  </si>
+  <si>
+    <t>I'm sorry to say it to you.</t>
+  </si>
+  <si>
+    <t>당신에게 이런 말씀 드리게 되어 죄송해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry to say I'll have to miss it.</t>
+  </si>
+  <si>
+    <t>참석할 수 없을 거라는 말씀을 드리게 되어 죄송해요.</t>
+  </si>
+  <si>
+    <t>I'm so sorry if I woke you up.</t>
+  </si>
+  <si>
+    <t>당신을 깨웠다면 죄송해요.</t>
+  </si>
+  <si>
+    <t>I'm sorry if I offended you.</t>
+  </si>
+  <si>
+    <t>당신의 기분을 상하게 했다면 정말 죄송해요.</t>
+  </si>
+  <si>
+    <t>I'm sosry if I gave you my cold.</t>
+  </si>
+  <si>
+    <t>당신에게 제 감기를 옮겼다면 정말 죄송해요.</t>
+  </si>
+  <si>
+    <t>I feel sorry for your loss.</t>
+  </si>
+  <si>
+    <t>고인의 명복을 빕니다.</t>
+  </si>
+  <si>
+    <t>I'll make up the time.</t>
+  </si>
+  <si>
+    <t>내가 시간을 더 낼 게.</t>
+  </si>
+  <si>
+    <t>Did you read through my report?</t>
+  </si>
+  <si>
+    <t>내 보고서 꼼꼼히 읽어봤어?</t>
+  </si>
+  <si>
+    <t>He got into a car accident.</t>
+  </si>
+  <si>
+    <t>그는 교통사고를 당했어.</t>
+  </si>
+  <si>
+    <t>Let me give you a hand.</t>
+  </si>
+  <si>
+    <t>제가 도와드릴게요.</t>
+  </si>
+  <si>
+    <t>Let me take care of this.</t>
+  </si>
+  <si>
+    <t>이건 제가 처리할게요.</t>
+  </si>
+  <si>
+    <t>Let me pick up the tab.</t>
+  </si>
+  <si>
+    <t>제가 계산할게요.</t>
+  </si>
+  <si>
+    <t>Let me tell you something.</t>
+  </si>
+  <si>
+    <t>할 말이 있는데요.</t>
+  </si>
+  <si>
+    <t>Let me explain my position.</t>
+  </si>
+  <si>
+    <t>제 입장을 설명드릴게요.</t>
+  </si>
+  <si>
+    <t>Let me know when you leave.</t>
+  </si>
+  <si>
+    <t>떠날 때 알려주세요.</t>
+  </si>
+  <si>
+    <t>Let me know if I should come over.</t>
+  </si>
+  <si>
+    <t>제가 가야 하면 알려주세요.</t>
   </si>
 </sst>
 </file>
@@ -676,7 +1228,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="38.5"/>
-    <col customWidth="1" min="2" max="2" width="28.25"/>
+    <col customWidth="1" min="2" max="2" width="37.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1223,6 +1775,742 @@
         <v>135</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/english.xlsx
+++ b/english.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t>I'm kind of nervous.</t>
   </si>
@@ -493,7 +493,7 @@
     <t>그 사람이 나를 대하는 방식이 좋아요.</t>
   </si>
   <si>
-    <t>I like the way I fell after exercising.</t>
+    <t>I like the way I feel after exercising.</t>
   </si>
   <si>
     <t>운동 후의 느낌이 좋아요.</t>
@@ -971,6 +971,186 @@
   </si>
   <si>
     <t>제가 가야 하면 알려주세요.</t>
+  </si>
+  <si>
+    <t>Let me see if I'm free.</t>
+  </si>
+  <si>
+    <t>제가 시간이 있는지 볼게요.</t>
+  </si>
+  <si>
+    <t>Let me see if there's anything I can do.</t>
+  </si>
+  <si>
+    <t>제가 할 수 있는 일이 있는지 볼게요.</t>
+  </si>
+  <si>
+    <t>Let me see if she's available.</t>
+  </si>
+  <si>
+    <t>그녀가 있는지 볼게요.</t>
+  </si>
+  <si>
+    <t>Let me see if there is some coffee left.</t>
+  </si>
+  <si>
+    <t>남은 커피가 있는지 한 번 볼게요.</t>
+  </si>
+  <si>
+    <t>Let me check the time.</t>
+  </si>
+  <si>
+    <t>제가 시간을 확인해 볼게요.</t>
+  </si>
+  <si>
+    <t>Let me check if it works well.</t>
+  </si>
+  <si>
+    <t>잘 되고 있는지 확인해 볼게요.</t>
+  </si>
+  <si>
+    <t>Let me show you the way.</t>
+  </si>
+  <si>
+    <t>방법을 보여드릴게요.</t>
+  </si>
+  <si>
+    <t>Let me show you what I have.</t>
+  </si>
+  <si>
+    <t>제가 가지고 있는 것을 보여드릴게요.</t>
+  </si>
+  <si>
+    <t>Let me think about it.</t>
+  </si>
+  <si>
+    <t>그것에 대해 생각해 볼게요.</t>
+  </si>
+  <si>
+    <t>Let me think about what you said.</t>
+  </si>
+  <si>
+    <t>말씀하신 것에 대해 생각해 볼게요.</t>
+  </si>
+  <si>
+    <t>I'm going to walk home.</t>
+  </si>
+  <si>
+    <t>전 걸어서 집에 가려고요.</t>
+  </si>
+  <si>
+    <t>I'll take about 30 minuties to get there.</t>
+  </si>
+  <si>
+    <t>거기 가려면 30분 정도 걸릴거야.</t>
+  </si>
+  <si>
+    <t>How can I speak to a manager?</t>
+  </si>
+  <si>
+    <t>매니저랑 얘기 좀 할 수 있을까요?</t>
+  </si>
+  <si>
+    <t>Can you make it tonight?</t>
+  </si>
+  <si>
+    <t>오늘 밤에 올 수 있어?</t>
+  </si>
+  <si>
+    <t>I think we should move in together.</t>
+  </si>
+  <si>
+    <t>우리 함께 이사 들어와야 할 것 같아.</t>
+  </si>
+  <si>
+    <t>There is some water on the floor.</t>
+  </si>
+  <si>
+    <t>바닥에 물이 좀 있어요.</t>
+  </si>
+  <si>
+    <t>There are so many people in line.</t>
+  </si>
+  <si>
+    <t>줄 선 사람들이 너무 많아요.</t>
+  </si>
+  <si>
+    <t>There are so many jobs I need to finish.</t>
+  </si>
+  <si>
+    <t>끝내야 할 일이 너무 많아요.</t>
+  </si>
+  <si>
+    <t>There is a lot of noise here.</t>
+  </si>
+  <si>
+    <t>여긴 소음이 심해요.</t>
+  </si>
+  <si>
+    <t>There is a lot of traffic.</t>
+  </si>
+  <si>
+    <t>차가 엄청 막혀요.</t>
+  </si>
+  <si>
+    <t>There are a number of reasons for my decision.</t>
+  </si>
+  <si>
+    <t>내 결정에 대한 이유가 몇 갖 ㅣ있어요</t>
+  </si>
+  <si>
+    <t>Are there any eggs left?</t>
+  </si>
+  <si>
+    <t>남은 달걀이 있나요?</t>
+  </si>
+  <si>
+    <t>Are there any questions?</t>
+  </si>
+  <si>
+    <t>질문 있나요?</t>
+  </si>
+  <si>
+    <t>Are there any other options?</t>
+  </si>
+  <si>
+    <t>다른 선택지들이 있나요?</t>
+  </si>
+  <si>
+    <t>Are there any instructions?</t>
+  </si>
+  <si>
+    <t>사용설명서가 있나요?</t>
+  </si>
+  <si>
+    <t>Is there anything going on this weekend?</t>
+  </si>
+  <si>
+    <t>이번 주말에 일이 있나요?</t>
+  </si>
+  <si>
+    <t>Are there many restaurants around here?</t>
+  </si>
+  <si>
+    <t>이 근처에 식당들이 많이 있나요?</t>
+  </si>
+  <si>
+    <t>There is some work to be done.</t>
+  </si>
+  <si>
+    <t>해야 할 일이 좀 있어요.</t>
+  </si>
+  <si>
+    <t>Why did you dump him?</t>
+  </si>
+  <si>
+    <t>너 걔를 왜 차버렸어?</t>
+  </si>
+  <si>
+    <t>What would you recommend me for dinner?</t>
+  </si>
+  <si>
+    <t>저녁 메뉴 추천 좀 해줄 수 있어요?</t>
   </si>
 </sst>
 </file>
@@ -2511,6 +2691,246 @@
         <v>319</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/english.xlsx
+++ b/english.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
   <si>
     <t>I'm kind of nervous.</t>
   </si>
@@ -1151,6 +1151,288 @@
   </si>
   <si>
     <t>저녁 메뉴 추천 좀 해줄 수 있어요?</t>
+  </si>
+  <si>
+    <t>That's why we are here.</t>
+  </si>
+  <si>
+    <t>그래서 우리가 여기 온 거예요.</t>
+  </si>
+  <si>
+    <t>That's why I picked this up.</t>
+  </si>
+  <si>
+    <t>그래서 제가 이걸 고른 거예요.</t>
+  </si>
+  <si>
+    <t>That's why I asked for help.</t>
+  </si>
+  <si>
+    <t>그래서 제가 도움을 요청했던 거예요.</t>
+  </si>
+  <si>
+    <t>That's because he makes big money.</t>
+  </si>
+  <si>
+    <t>그건 그 사람이 큰 돈을 벌기 때문이에요.</t>
+  </si>
+  <si>
+    <t>That's because you lied to them.</t>
+  </si>
+  <si>
+    <t>그건 당신이 그들에게 거짓말을 했기 때문이에요.</t>
+  </si>
+  <si>
+    <t>That's what I think.</t>
+  </si>
+  <si>
+    <t>그게 바로 내가 생각하고 있는 거에요.</t>
+  </si>
+  <si>
+    <t>That's how it works.</t>
+  </si>
+  <si>
+    <t>그건 그렇게 작동하는 거예요.</t>
+  </si>
+  <si>
+    <t>That's how I met my girlfriend.</t>
+  </si>
+  <si>
+    <t>전 그렇게 제 여친을 만났던 거예요.</t>
+  </si>
+  <si>
+    <t>That's where I'm going, too.</t>
+  </si>
+  <si>
+    <t>저도 거기에 가는 길이에요.</t>
+  </si>
+  <si>
+    <t>That's where I used to work.</t>
+  </si>
+  <si>
+    <t>거기가 제가 일했던 곳이에요.</t>
+  </si>
+  <si>
+    <t>That's the way I have lost so much weight.</t>
+  </si>
+  <si>
+    <t>그게 바로 제가 살을 많이 뺀 방법이에요.</t>
+  </si>
+  <si>
+    <t>That's the way we beat our rivals.</t>
+  </si>
+  <si>
+    <t>그게 바로 우리가 경쟁자들을 이기는 방법이에요.</t>
+  </si>
+  <si>
+    <t>That's no way to behave.</t>
+  </si>
+  <si>
+    <t>그렇게 행동하면 안 돼요.</t>
+  </si>
+  <si>
+    <t>That's no way to drive your car.</t>
+  </si>
+  <si>
+    <t>그렇게 차를 운전하면 안 돼요.</t>
+  </si>
+  <si>
+    <t>That's exactly what I mean.</t>
+  </si>
+  <si>
+    <t>그게 바로 제가 의미하는 거예요.</t>
+  </si>
+  <si>
+    <t>That's all I can do at this moment.</t>
+  </si>
+  <si>
+    <t>지금 제가 할 수 있는 건 그게 다예요.</t>
+  </si>
+  <si>
+    <t>You got a lot of work done.</t>
+  </si>
+  <si>
+    <t>너 진짜 일 많이 했다.</t>
+  </si>
+  <si>
+    <t>I should have listened to you.</t>
+  </si>
+  <si>
+    <t>네 말을 들었어야 했는데.</t>
+  </si>
+  <si>
+    <t>He threw the ball at the window.</t>
+  </si>
+  <si>
+    <t>그가 창문에 공을 던졌어.</t>
+  </si>
+  <si>
+    <t>I'm so jealous.</t>
+  </si>
+  <si>
+    <t>너무 부럽다.</t>
+  </si>
+  <si>
+    <t>I got accepted at Stanford University!</t>
+  </si>
+  <si>
+    <t>나 스탠퍼드 대학에 합격했어!</t>
+  </si>
+  <si>
+    <t>Don't tell me you've changed your mind.</t>
+  </si>
+  <si>
+    <t>설마 너 마음 바뀐 건 아니지?</t>
+  </si>
+  <si>
+    <t>Let me tell you about the company.</t>
+  </si>
+  <si>
+    <t>그 회사에 대해 말해 줄게요.</t>
+  </si>
+  <si>
+    <t>I told you to knock it off.</t>
+  </si>
+  <si>
+    <t>제가 그만 좀 하라고 했잖아요.</t>
+  </si>
+  <si>
+    <t>I told you not to stay up so late.</t>
+  </si>
+  <si>
+    <t>너무 늦게까지 깨어있지 말라고 했잖아요.</t>
+  </si>
+  <si>
+    <t>I was told to call you.</t>
+  </si>
+  <si>
+    <t>당신에게 전화하라고 하던데요.</t>
+  </si>
+  <si>
+    <t>I can tell by looking at hime that he's organized.</t>
+  </si>
+  <si>
+    <t>보니까 그가 정리를 잘하는 사람인 걸 알겠어요.</t>
+  </si>
+  <si>
+    <t>I can tell by how he's shaking that he's nervous.</t>
+  </si>
+  <si>
+    <t>그가 떨고 있는 모습을 보니 그가 긴장하고 있다는 걸 알겠어요.</t>
+  </si>
+  <si>
+    <t>You are telling me it's no good?</t>
+  </si>
+  <si>
+    <t>지금 그게 형편없다고 말하는 거예요?</t>
+  </si>
+  <si>
+    <t>You are telling me it was an honest mistake?</t>
+  </si>
+  <si>
+    <t>지금 그게 단순한 실수였다고 말하는 거예요?</t>
+  </si>
+  <si>
+    <t>I'm dead serious.</t>
+  </si>
+  <si>
+    <t>나 정말 진심이야.</t>
+  </si>
+  <si>
+    <t>It looks like you rushed.</t>
+  </si>
+  <si>
+    <t>너 서두르는 것 같았어.</t>
+  </si>
+  <si>
+    <t>I know the way there.</t>
+  </si>
+  <si>
+    <t>그곳에 가는 방법을 알아요.</t>
+  </si>
+  <si>
+    <t>I know what you spent that money on.</t>
+  </si>
+  <si>
+    <t>전 당신이 그 돈을 어디에 썼는지 알아요.</t>
+  </si>
+  <si>
+    <t>I've know her for years.</t>
+  </si>
+  <si>
+    <t>그녀를 몇 년째 알고 지내요.</t>
+  </si>
+  <si>
+    <t>I'll let you know when I hear something.</t>
+  </si>
+  <si>
+    <t>뭔가를 들으면 알려 줄게요.</t>
+  </si>
+  <si>
+    <t>I'll let you know when I'm done.</t>
+  </si>
+  <si>
+    <t>내 일이 다 끝나면 알려 줄게요.</t>
+  </si>
+  <si>
+    <t>Care for another cup of tea?</t>
+  </si>
+  <si>
+    <t>차 한 잔 더 드실래요?</t>
+  </si>
+  <si>
+    <t>Do you mind if I call you late at night?</t>
+  </si>
+  <si>
+    <t>밤늦게 전화해도 될까요?</t>
+  </si>
+  <si>
+    <t>Do you mind if I leave the office early today?</t>
+  </si>
+  <si>
+    <t>오늘 일찍 퇴근해도 될까요?</t>
+  </si>
+  <si>
+    <t>I don't mind the bad weather.</t>
+  </si>
+  <si>
+    <t>날씨가 안 좋아도 상관없어요.</t>
+  </si>
+  <si>
+    <t>I don't mind how it looks.</t>
+  </si>
+  <si>
+    <t>그게 어떻게 보이는가는 상관없어요.</t>
+  </si>
+  <si>
+    <t>I didn't mean to worry you.</t>
+  </si>
+  <si>
+    <t>당신을 걱정시킬 의도는 아니었어요.</t>
+  </si>
+  <si>
+    <t>That means he's not leaving?</t>
+  </si>
+  <si>
+    <t>그건 그가 떠나지 않는다는 뜻인가요?</t>
+  </si>
+  <si>
+    <t>That means we came in first place?</t>
+  </si>
+  <si>
+    <t>그건 우리가 제일 먼저 들어왔다는 뜻인가요?</t>
+  </si>
+  <si>
+    <t>Thank you for your advice.</t>
+  </si>
+  <si>
+    <t>조언해 주셔서 고마워요.</t>
+  </si>
+  <si>
+    <t>Thanks a lot for your help with the project.</t>
+  </si>
+  <si>
+    <t>프로젝트를 도와주셔서 정말 고마워요.</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1690,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="38.5"/>
-    <col customWidth="1" min="2" max="2" width="37.13"/>
+    <col customWidth="1" min="2" max="2" width="44.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2931,6 +3213,382 @@
         <v>379</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
